--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="468">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1423,6 +1423,12 @@
   </si>
   <si>
     <t>Yes (23rd Nov)</t>
+  </si>
+  <si>
+    <t>Yes(24th Nov)</t>
+  </si>
+  <si>
+    <t>Yes(25th Nov)</t>
   </si>
 </sst>
 </file>
@@ -1844,7 +1850,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1855,7 +1861,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1916,7 +1922,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>4</v>
+        <v>466</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21">
@@ -1927,7 +1933,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>4</v>
+        <v>466</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21">
@@ -1938,7 +1944,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21">
@@ -1949,7 +1955,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="469">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1429,6 +1429,9 @@
   </si>
   <si>
     <t>Yes(25th Nov)</t>
+  </si>
+  <si>
+    <t>Yes&lt;25th Nov&gt;</t>
   </si>
 </sst>
 </file>
@@ -1519,7 +1522,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1543,6 +1546,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1860,8 +1866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1958,15 +1964,15 @@
         <v>467</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="21">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:3" s="10" customFormat="1">
+      <c r="A12" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>4</v>
+      <c r="C12" s="11" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="21">
@@ -1977,7 +1983,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="472">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1432,13 +1432,22 @@
   </si>
   <si>
     <t>Yes&lt;25th Nov&gt;</t>
+  </si>
+  <si>
+    <t>YES 4th Dec</t>
+  </si>
+  <si>
+    <t>DP Problem (pending)</t>
+  </si>
+  <si>
+    <t>YES &lt;4th Dec&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1500,13 +1509,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1518,11 +1539,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1549,8 +1571,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1856,7 +1882,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1867,7 +1893,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1994,7 +2020,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>4</v>
+        <v>469</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="21">
@@ -2004,8 +2030,8 @@
       <c r="B15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>4</v>
+      <c r="C15" s="12" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="21">
@@ -2016,7 +2042,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>4</v>
+        <v>471</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="21">
